--- a/assets/data/data.xlsx
+++ b/assets/data/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f9d217ab99d39bc8/Dokumente/Wissenschaftswoche 22/bubbles-muristalden-main/assets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="13_ncr:1_{7001FAD3-2AF8-6843-A5C4-C54668C5F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD6FB668-DFA5-49B8-AB75-1BD855D97327}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="13_ncr:1_{7001FAD3-2AF8-6843-A5C4-C54668C5F12F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB154718-3FE0-4093-96B7-9C0CA4B80326}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12220" activeTab="2" xr2:uid="{6B69ADE4-A701-2D46-8A67-E540E989F12C}"/>
   </bookViews>
@@ -5514,11 +5514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25:K198"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -5606,7 +5605,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5672,7 +5671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5738,7 +5737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5804,7 +5803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5870,7 +5869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5936,7 +5935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6002,7 +6001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6068,7 +6067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6134,7 +6133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6200,7 +6199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6266,7 +6265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6332,7 +6331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6464,7 +6463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6530,7 +6529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6596,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6662,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6728,7 +6727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6794,7 +6793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6926,7 +6925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6992,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7058,7 +7057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7124,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7190,7 +7189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7256,7 +7255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7322,7 +7321,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7388,7 +7387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7454,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7586,7 +7585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -7652,7 +7651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -7718,7 +7717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -7784,7 +7783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -7850,7 +7849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7916,7 +7915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -7982,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -8048,7 +8047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -8114,7 +8113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -8180,7 +8179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -8246,7 +8245,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -8312,7 +8311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -8444,7 +8443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -8510,7 +8509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -8576,7 +8575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -8642,7 +8641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -8708,7 +8707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -8774,7 +8773,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -8840,7 +8839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -8906,7 +8905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -8972,7 +8971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -9104,7 +9103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -9170,7 +9169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -9302,7 +9301,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -9368,7 +9367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -9434,7 +9433,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -9500,7 +9499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -9566,7 +9565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -9632,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -9698,7 +9697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -9764,7 +9763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -9830,7 +9829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -10028,7 +10027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -10094,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -10226,7 +10225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -10292,7 +10291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -10358,7 +10357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -10424,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -10490,7 +10489,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -10556,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -10622,7 +10621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -10688,7 +10687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -10886,7 +10885,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -10952,7 +10951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -11018,7 +11017,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -11084,7 +11083,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -11150,7 +11149,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -11216,7 +11215,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -11612,7 +11611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -11678,7 +11677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -11744,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -11876,7 +11875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -11942,7 +11941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -12008,7 +12007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -12074,7 +12073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -12140,7 +12139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -12206,7 +12205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -12272,7 +12271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -12470,7 +12469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -12536,7 +12535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -12602,7 +12601,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -12668,7 +12667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -12734,7 +12733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -12800,7 +12799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="113" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -12998,7 +12997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -13064,7 +13063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -13130,7 +13129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -13196,7 +13195,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -13262,7 +13261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -13328,7 +13327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -13394,7 +13393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -13460,7 +13459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -13592,7 +13591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -13658,7 +13657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -13724,7 +13723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -13790,7 +13789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -13856,7 +13855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -13922,7 +13921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -13988,7 +13987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -14054,7 +14053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -14120,7 +14119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -14186,7 +14185,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -14252,7 +14251,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -14318,7 +14317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -14384,7 +14383,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -14516,7 +14515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -14582,7 +14581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -14648,7 +14647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -14714,7 +14713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -14780,7 +14779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -14846,7 +14845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="142" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -14912,7 +14911,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -14978,7 +14977,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="144" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -15110,7 +15109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -15176,7 +15175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="147" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -15242,7 +15241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -15308,7 +15307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -15374,7 +15373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -15440,7 +15439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -15506,7 +15505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="152" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -15572,7 +15571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -15638,7 +15637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="2">
         <v>153</v>
       </c>
@@ -15704,7 +15703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="2">
         <v>154</v>
       </c>
@@ -15770,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="2">
         <v>155</v>
       </c>
@@ -15836,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="2">
         <v>156</v>
       </c>
@@ -15902,7 +15901,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="158" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="2">
         <v>157</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="2">
         <v>158</v>
       </c>
@@ -16034,7 +16033,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="160" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160" s="2">
         <v>159</v>
       </c>
@@ -16100,7 +16099,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161" s="2">
         <v>160</v>
       </c>
@@ -16166,7 +16165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162" s="2">
         <v>161</v>
       </c>
@@ -16232,7 +16231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163" s="2">
         <v>162</v>
       </c>
@@ -16298,7 +16297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164" s="2">
         <v>163</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="165" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165" s="2">
         <v>164</v>
       </c>
@@ -16430,7 +16429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166" s="2">
         <v>165</v>
       </c>
@@ -16496,7 +16495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="167" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167" s="2">
         <v>166</v>
       </c>
@@ -16562,7 +16561,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="168" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168" s="2">
         <v>167</v>
       </c>
@@ -16628,7 +16627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169" s="2">
         <v>168</v>
       </c>
@@ -16694,7 +16693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="170" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170" s="2">
         <v>169</v>
       </c>
@@ -16760,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171" s="2">
         <v>170</v>
       </c>
@@ -16826,7 +16825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172" s="2">
         <v>171</v>
       </c>
@@ -16892,7 +16891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="173" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -16958,7 +16957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -17024,7 +17023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -17090,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -17156,7 +17155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -17222,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -17288,7 +17287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -17354,7 +17353,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -17420,7 +17419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -17486,7 +17485,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="182" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -17552,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -17618,7 +17617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -17684,7 +17683,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -17750,7 +17749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -17816,7 +17815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -17882,7 +17881,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -17948,7 +17947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="189" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -18014,7 +18013,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -18080,7 +18079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="191" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -18146,7 +18145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -18212,7 +18211,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -18278,7 +18277,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -18344,7 +18343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -18410,7 +18409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -18476,7 +18475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -18542,7 +18541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:21" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -18609,27 +18608,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:U198" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="41"/>
-        <filter val="42"/>
-        <filter val="43"/>
-        <filter val="46"/>
-        <filter val="47"/>
-        <filter val="49"/>
-        <filter val="50"/>
-        <filter val="51"/>
-        <filter val="55"/>
-        <filter val="56"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="Nein"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:U198" xr:uid="{E309CC08-ED1A-B049-A4B2-49766F74ECB5}"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
